--- a/tabelaimena.xlsx
+++ b/tabelaimena.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Pera</t>
   </si>
@@ -73,6 +73,96 @@
   </si>
   <si>
     <t>Carter</t>
+  </si>
+  <si>
+    <t>Carol</t>
+  </si>
+  <si>
+    <t>Schmitt</t>
+  </si>
+  <si>
+    <t>Shane</t>
+  </si>
+  <si>
+    <t>Padberg</t>
+  </si>
+  <si>
+    <t>Mirna</t>
+  </si>
+  <si>
+    <t>Simonis</t>
+  </si>
+  <si>
+    <t>Gustavo</t>
+  </si>
+  <si>
+    <t>Hamill</t>
+  </si>
+  <si>
+    <t>Tran</t>
+  </si>
+  <si>
+    <t>Luettgen</t>
+  </si>
+  <si>
+    <t>Franklin</t>
+  </si>
+  <si>
+    <t>Kassulke</t>
+  </si>
+  <si>
+    <t>Freida</t>
+  </si>
+  <si>
+    <t>Koss</t>
+  </si>
+  <si>
+    <t>Michaela</t>
+  </si>
+  <si>
+    <t>Mueller</t>
+  </si>
+  <si>
+    <t>Miranda</t>
+  </si>
+  <si>
+    <t>Frami</t>
+  </si>
+  <si>
+    <t>Hubert</t>
+  </si>
+  <si>
+    <t>Bechtelar</t>
+  </si>
+  <si>
+    <t>Rufus</t>
+  </si>
+  <si>
+    <t>Ankunding</t>
+  </si>
+  <si>
+    <t>Jessia</t>
+  </si>
+  <si>
+    <t>Cartwright</t>
+  </si>
+  <si>
+    <t>Owen</t>
+  </si>
+  <si>
+    <t>Paucek</t>
+  </si>
+  <si>
+    <t>Nathanael</t>
+  </si>
+  <si>
+    <t>Franecki</t>
+  </si>
+  <si>
+    <t>Shena</t>
+  </si>
+  <si>
+    <t>McGlynn</t>
   </si>
 </sst>
 </file>
@@ -373,42 +463,42 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>17</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/tabelaimena.xlsx
+++ b/tabelaimena.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>Pera</t>
   </si>
@@ -163,6 +163,39 @@
   </si>
   <si>
     <t>McGlynn</t>
+  </si>
+  <si>
+    <t>Alanna</t>
+  </si>
+  <si>
+    <t>Minda</t>
+  </si>
+  <si>
+    <t>Larson</t>
+  </si>
+  <si>
+    <t>Santos</t>
+  </si>
+  <si>
+    <t>Hoppe</t>
+  </si>
+  <si>
+    <t>Johnathan</t>
+  </si>
+  <si>
+    <t>Kiehn</t>
+  </si>
+  <si>
+    <t>Enid</t>
+  </si>
+  <si>
+    <t>Ritchie</t>
+  </si>
+  <si>
+    <t>Jesse</t>
+  </si>
+  <si>
+    <t>Senger</t>
   </si>
 </sst>
 </file>
@@ -415,7 +448,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -463,42 +496,50 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>49</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
